--- a/spreadsheet/macrofree/appsvc_checklist.en.xlsx
+++ b/spreadsheet/macrofree/appsvc_checklist.en.xlsx
@@ -1069,10 +1069,14 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Refer to baseline highly available zone-redundant web application architecture for best practices</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
+          <t>Implement a baseline highly available zone-redundant web application architecture. Ensure your Azure App Service is on Premium V2/V3 or Isolated v2 tiers for zone-redundant support.</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>Leverage zone-redundancy to ensure high availability in the event of zone-level failures. Use Premium V2/V3 or Isolated v2 tiers, which provide support for zone-redundant deployments and ensure minimal downtime during disasters.</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
           <t>Low</t>
@@ -1086,7 +1090,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1115,10 +1119,14 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use Premium and Standard tiers. These tiers support staging slots and automated backups.</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="n"/>
+          <t>Use Premium and Standard tiers for staging slots and automated backups. Align your backup retention period with disaster recovery needs.</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>Leverage staging slots for zero-downtime deployments and automated backups to ensure disaster recovery. Choose the appropriate tier (Standard or Premium) based on the number of slots and disaster recovery requirements.</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1132,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1161,10 +1169,14 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones where regionally applicable (requires Premium v2 or v3 tier)</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n"/>
+          <t>Leverage Availability Zones where regionally applicable (Premium V2/V3 tier required). Check region support for Availability Zones.</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>Availability Zones provide physical isolation across datacenters in a region, reducing downtime during outages. Verify your region supports Availability Zones and use Premium V2/V3 tiers for zone-redundant deployments.</t>
+        </is>
+      </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
           <t>High</t>
@@ -1178,7 +1190,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/migrate-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-service</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1207,10 +1219,14 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implement health checks</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n"/>
+          <t>Implement health checks to monitor and detect issues with App Service instances. Health checks enable automatic instance replacement on failure.</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>Enable health checks to detect unhealthy instances in real-time and automatically replace them to maintain high availability and application reliability.</t>
+        </is>
+      </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1224,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1253,10 +1269,14 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Refer to backup and restore best practices for Azure App Service</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Refer to backup and restore best practices for Azure App Service and App Service Environments (ASE) to ensure data availability and recovery.</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>Follow best practices for configuring backups and restores in Azure App Service and ASE to guarantee data availability and ensure recovery during disaster scenarios.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>High</t>
@@ -1270,7 +1290,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-backup</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-backup</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1299,10 +1319,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implement Azure App Service reliability best practices</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Implement Azure App Service reliability best practices, including auto-scaling, fault tolerance, health checks, and zone redundancy.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Ensure high availability by incorporating scaling, fault tolerance, monitoring, and zone redundancy into your App Service architecture. Leverage health checks and availability zones to maintain uptime.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>High</t>
@@ -1316,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1345,10 +1369,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Familiarize with how to move an App Service app to another region During a disaster</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>Familiarize with App Service region failover, including active-active and active-passive configurations, automated failover, and IaC deployment.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>Prepare for disaster recovery by implementing region failover strategies. Utilize active-active and active-passive configurations, automated failover, and Infrastructure as Code (IaC) for seamless failover during outages.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Low</t>
@@ -1362,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1391,10 +1419,14 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Familiarize with reliability support in Azure App Service</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="n"/>
+          <t>Familiarize with reliability support in Azure App Service, including scaling options, SLAs, and automated recovery mechanisms.</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Azure App Service offers built-in reliability features, including scaling, fault tolerance, and service-level agreements (SLAs). Leverage these features to maintain consistent performance during outages.</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>High</t>
@@ -1408,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/reliability-app-service</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1437,10 +1469,14 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Ensure "Always On" is enabled for Function Apps running on a app service plan</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>Ensure 'Always On' is enabled for Function Apps running on App Service plans to prevent idling and ensure continuous availability.</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Enabling 'Always On' for Function Apps ensures that the app does not go idle, maintaining its availability and responsiveness at all times.</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1454,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-functions/dedicated-plan#always-on</t>
+          <t>https://learn.microsoft.com/azure/azure-functions/dedicated-plan#always-on</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1483,10 +1519,14 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Monitor App Service instances using Health checks</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>Monitor App Service instances using Health checks to detect unhealthy instances and automatically replace them.</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>Health checks monitor the health of App Service instances, enabling automatic replacement of unhealthy instances to maintain high availability.</t>
+        </is>
+      </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1500,7 +1540,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1524,15 +1564,19 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Monitor availability and responsiveness of web app or website using Application Insights availability tests</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>Use Auto-Healing with custom rules to restart App Service instances automatically when failures occur.</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Leverage Auto-Healing in Azure App Service to automatically restart instances or trigger custom actions based on pre-defined failure conditions like memory thresholds, HTTP errors, or specific event logs.</t>
+        </is>
+      </c>
       <c r="E18" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1546,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-diagnostics</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>60b3a935-33e5-45c9-87c7-53882e395b46</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1575,13 +1619,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Use Application Insights Standard test to monitor availability and responsiveness of web app or website</t>
+          <t>Monitor availability and responsiveness of web app or website using Application Insights availability tests, ensuring proactive detection of performance issues and downtime.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1636,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-standard-tests</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1644,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,27 +1655,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault to store secrets</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure Key Vault to store any secrets the application needs.  Key Vault provides a safe and audited environment for storing secrets and is well-integrated with App Service through the Key Vault SDK or App Service Key Vault References.</t>
-        </is>
-      </c>
+          <t>Use Application Insights Standard test to monitor availability and responsiveness of web app or website</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1642,7 +1682,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-standard-tests</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1650,7 +1690,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1661,27 +1701,27 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Use Managed Identity to connect to Key Vault</t>
+          <t>Set up alerts for critical Application Insights metrics, such as response time and failure rates.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Use a Managed Identity to connect to Key Vault either using the Key Vault SDK or through App Service Key Vault References.</t>
+          <t>Configure Azure Monitor alerts based on Application Insights metrics for response times, failure rates, and overall availability. Alerts help detect issues proactively and reduce mean-time-to-recovery (MTTR).</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1692,7 +1732,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/alerts</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1700,7 +1740,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>e52e4514-02a7-4e81-a98e-88ce1b18e557</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1721,12 +1761,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault to store TLS certificate.</t>
+          <t>Use Azure Key Vault to store any secrets the application needs. Key Vault provides a secure, managed, and audited environment for storing secrets, and integrates seamlessly with App Service via App Service Key Vault References for enhanced security.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Store the App Service TLS certificate in Key Vault.</t>
+          <t>Azure Key Vault ensures secrets are encrypted, securely stored, and accessed only by authorized applications. It supports audit logging, and secret versioning, and reduces the risk of accidental exposure of sensitive information.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1742,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1750,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1771,17 +1811,17 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Isolate systems that process sensitive information</t>
+          <t>Use Managed Identity to securely connect to Azure Key Vault for accessing secrets, through App Service Key Vault References.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Systems that process sensitive information should be isolated.  To do so, use separate App Service Plans or App Service Environments and consider the use of different subscriptions or management groups.</t>
+          <t>Managed Identity eliminates the need for hard-coded credentials by allowing App Service to authenticate to Azure Key Vault securely. This reduces the risk of credential exposure and simplifies secret management for enhanced security.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1792,7 +1832,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1800,7 +1840,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1821,17 +1861,17 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Do not store sensitive data on local disk</t>
+          <t>Use Azure Key Vault to securely store and manage TLS certificates for App Service.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Local disks on App Service are not encrypted and sensitive data should not be stored on those.  (For example: D:\\Local and %TMP%).</t>
+          <t>Storing TLS certificates in Azure Key Vault enhances security by providing centralized, secure management and automated renewal of certificates. This reduces the risk of manual handling errors and certificate expiration.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1842,7 +1882,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1850,7 +1890,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1866,17 +1906,17 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Control</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use an established Identity Provider for authentication</t>
+          <t>Isolate systems that process sensitive information using separate App Service Plans, App Service Environments (ASE), and consider different subscriptions or management groups for enhanced security.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>For authenticated web application, use a well established Identity Provider like Azure AD or Azure AD B2C.  Leverage the application framework of your choice to integrate with this provider or use the App Service Authentication / Authorization feature.</t>
+          <t>To minimize exposure and improve security, isolate systems processing sensitive data. Leverage separate App Service Plans or App Service Environments for isolation, and use different subscriptions or management groups to enforce stricter boundaries and governance.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1892,7 +1932,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1900,7 +1940,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1916,22 +1956,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Control</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Deploy from a trusted environment</t>
+          <t>Do not store sensitive data on local disk</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Deploy code to App Service from a controlled and trusted environment, like a well-managed and secured DevOps deployment pipeline. This avoids code that was not version controlled and verified to be deployed from a malicious host.</t>
+          <t>Local disks on App Service are not encrypted and sensitive data should not be stored on those.  (For example: D:\\Local and %TMP%).</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1942,7 +1982,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1950,7 +1990,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1971,17 +2011,17 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Disable basic authentication</t>
+          <t>Use Microsoft Entra ID or B2C for secure authentication and Single Sign-On (SSO).</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Disable basic authentication for both FTP/FTPS and for WebDeploy/SCM.  This disables access to these services and enforces the use of Azure AD secured endpoints for deployment.  Note that the SCM site can also be opened using Azure AD credentials.</t>
+          <t>Use Microsoft Entra ID or B2C for secure user authentication and Single Sign-On (SSO) across applications. Integrate using the built-in App Service Authentication/Authorization feature for streamlined security and compliance with modern authentication protocols like OpenID Connect.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1992,14 +2032,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2020,12 +2060,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use Managed Identity to connect to resources</t>
+          <t>Deploy code to App Service from a trusted and secure environment.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Where possible use Managed Identity to connect to Azure AD secured resources.  If this is not possible, store secrets in Key Vault and connect to Key Vault using a Managed Identity instead.</t>
+          <t>Ensure all code deployments to App Service originate from a controlled, secured environment, such as a well-managed DevOps pipeline. This practice mitigates the risk of deploying unauthorized or malicious code by enforcing version control, code verification, and secure hosting.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2041,14 +2081,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2069,12 +2109,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Pull containers using a Managed Identity</t>
+          <t>Disable basic authentication for FTP/FTPS and WebDeploy/SCM.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Where using images stored in Azure Container Registry, pull these using a Managed Identity.</t>
+          <t>Disable basic authentication for FTP/FTPS and WebDeploy/SCM to enhance security by enforcing Microsoft Entra ID secured endpoints for deployment. This ensures that only authenticated users using Microsoft Entra ID credentials can access deployment services, including the SCM site.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2090,14 +2130,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,22 +2153,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Logging and Monitoring</t>
+          <t>Identity and Access Control</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Send App Service runtime logs to Log Analytics</t>
+          <t>Use Managed Identity to connect to Microsoft Entra ID secured resources.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>By configuring the diagnostic settings of App Service, you can send all telemetry to Log Analytics as the central destination for logging and monitoring. This allows you to monitor runtime activity of App Service such as HTTP logs, application logs, platform logs, ...</t>
+          <t>Wherever possible, use Managed Identity to securely connect to Microsoft Entra ID-secured resources without storing credentials. If this is not feasible, store secrets in Azure Key Vault and access them using Managed Identity to maintain security and reduce the risk of credential exposure.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2139,14 +2179,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,22 +2202,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Logging and Monitoring</t>
+          <t>Identity and Access Control</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Send App Service activity logs to Log Analytics</t>
+          <t>Pull container images from Azure Container Registry using a Managed Identity.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Set up a diagnostic setting to send the activity log to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the App Service resource itself.</t>
+          <t>When using images stored in Azure Container Registry, pull these images using a Managed Identity to avoid storing credentials. This ensures secure access to container images and reduces the risk of credential exposure.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2188,14 +2228,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2211,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Logging and Monitoring</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Outbound network access should be controlled</t>
+          <t>Send App Service runtime and security logs to Log Analytics for centralized monitoring and alerting.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Control outbound network access using a combination of regional VNet integration, network security groups and UDR's.  Traffic should be routed to an NVA such as Azure Firewall.  Ensure to monitor the Firewall's logs.</t>
+          <t>Configure diagnostic settings to send telemetry and security logs (including HTTP, platform, and audit logs) to Log Analytics. Centralized logging enhances monitoring, threat detection, and compliance reporting.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2237,7 +2277,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2285,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,22 +2301,22 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Logging and Monitoring</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Ensure a stable IP for outbound communications towards internet addresses</t>
+          <t>Send App Service activity logs to Log Analytics</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>You can provide a stable outbound IP by using VNet integration and using a VNet NAT Gateway or an NVA like Azure Firewall.  This allows the receiving party to allow-list based on IP, should that be needed.  Note that for communications towards Azure Services often there's no need to depend on the IP address and mechanics like Service Endpoints should be used instead.  (Also the use of private endpoints on the receiving end avoids for SNAT to happen and provides a stable outbound IP range.)</t>
+          <t>Set up a diagnostic setting to send the activity log to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the App Service resource itself.</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2287,7 +2327,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2295,7 +2335,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2316,17 +2356,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Inbound network access should be controlled</t>
+          <t>Control outbound network access for App Service using VNet integration, NSGs, UDRs, and firewalls.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Control inbound network access using a combination of App Service Access Restrictions, Service Endpoints or Private Endpoints. Different access restrictions can be required and configured for the web app itself and the SCM site.</t>
+          <t>Use regional VNet integration, Network Security Groups (NSGs), and User-Defined Routes (UDRs) to control outbound network access. Route traffic through a Network Virtual Appliance (NVA), such as Azure Firewall, and monitor firewall logs to ensure traffic is properly controlled and secure.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2337,7 +2377,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2345,7 +2385,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2366,17 +2406,17 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use a WAF in front of App Service</t>
+          <t>Ensure a stable IP for outbound communications by using VNet NAT Gateway or Azure Firewall.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Protect against malicious inbound traffic using a Web Application Firewall like Application Gateway or Azure Front Door.  Make sure to monitor the WAF's logs.</t>
+          <t>Provide a stable outbound IP by using VNet integration with a NAT Gateway or Network Virtual Appliance (NVA) like Azure Firewall. This enables the receiving party to allow-list based on IP, if necessary. For communications with Azure services, use mechanisms like Service Endpoints or private endpoints to avoid relying on static IPs, ensuring secure and efficient connectivity.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2387,7 +2427,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2395,7 +2435,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2416,12 +2456,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Avoid for WAF to be bypassed</t>
+          <t>Control inbound network access using Access Restrictions, Service Endpoints, or Private Endpoints.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Make sure the WAF cannot be bypassed by locking down access to only the WAF.  Use a combination of Access Restrictions, Service Endpoints and Private Endpoints.</t>
+          <t>Control inbound network access by configuring App Service Access Restrictions, Service Endpoints, or Private Endpoints. Ensure appropriate restrictions are set for both the web app and the SCM (deployment) site to limit unauthorized access and enhance security.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2445,7 +2485,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2466,17 +2506,17 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Set minimum TLS policy to 1.2</t>
+          <t>Use a Web Application Firewall (WAF) in front of App Service.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Set minimum TLS policy to 1.2 in App Service configuration.</t>
+          <t>Protect App Service from malicious inbound traffic by deploying a Web Application Firewall (WAF) using Azure Application Gateway or Azure Front Door. Ensure WAF logs are monitored regularly to detect and respond to security threats.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2527,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2495,7 +2535,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2516,12 +2556,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Use HTTPS only</t>
+          <t>Ensure the WAF cannot be bypassed by securing access to App Service.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Configure App Service to use HTTPS only.  This causes App Service to redirect from HTTP to HTTPS.  Strongly consider the use of HTTP Strict Transport Security (HSTS) in your code or from your WAF, which informs browsers that the site should only be accessed using HTTPS.</t>
+          <t>To prevent the Web Application Firewall (WAF) from being bypassed, lock down access to App Service by using Access Restrictions, Service Endpoints, and Private Endpoints. This ensures that all traffic is routed through the WAF, providing a secure front layer of protection.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2537,7 +2577,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2545,7 +2585,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2566,17 +2606,17 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Wildcards must not be used for CORS</t>
+          <t>Set minimum TLS policy to 1.2 or higher, preferably 1.3, in App Service configuration.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Do not use wildcards in your CORS configuration, as this allows all origins to access the service (thereby defeating the purpose of CORS). Specifically only allow the origins that you expect to be able to access the service.</t>
+          <t>Ensure that the minimum TLS policy is set to 1.2 or higher, with a preference for TLS 1.3, to enhance security through stronger encryption protocols. TLS 1.3 provides additional security improvements and faster handshake times, reducing vulnerabilities associated with older versions.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2627,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2595,7 +2635,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2616,12 +2656,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Turn off remote debugging</t>
+          <t>Use HTTPS only and consider enabling HTTP Strict Transport Security (HSTS).</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Remote debugging must not be turned on in production as this opens additional ports on the service which increases the attack surface. Note that the service does turn of remote debugging automatically after 48 hours.</t>
+          <t>Configure App Service to enforce HTTPS-only, automatically redirecting all HTTP traffic to HTTPS. Additionally, implement HTTP Strict Transport Security (HSTS) in your code or via a Web Application Firewall (WAF) to ensure browsers only access the site over HTTPS, enhancing security by preventing downgrade attacks.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2637,7 +2677,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2645,7 +2685,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2666,17 +2706,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud - Defender for App Service</t>
+          <t>Avoid using wildcards for CORS; specify allowed origins explicitly.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for App Service.  This (amongst other threats) detects communications to known malicious IP addresses.  Review the recommendations from Defender for App Service as part of your operations.</t>
+          <t>Do not use wildcards (*) in your CORS configuration, as this permits unrestricted access from any origin, compromising security. Instead, explicitly specify trusted origins that are allowed to access the service, ensuring controlled access.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2687,7 +2727,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2695,7 +2735,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2716,17 +2756,17 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Enable DDOS Protection Standard on the WAF VNet</t>
+          <t>Turn off remote debugging in production environments.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Azure provides DDoS Basic protection on its network, which can be improved with intelligent DDoS Standard capabilities which learns about normal traffic patterns and can detect unusual behavior. DDoS Standard applies to a Virtual Network so it must be configured for the network resource in front of the app, such as Application Gateway or an NVA.</t>
+          <t>Remote debugging should not be enabled in production as it opens additional ports, increasing the attack surface. Although App Service automatically turns off remote debugging after 48 hours, it is recommended to disable it manually in production to maintain a secure environment.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,7 +2777,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2745,7 +2785,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2766,12 +2806,12 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Pull containers over a Virtual Network</t>
+          <t>Enable Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Where using images stored in Azure Container Registry, pull these over a virtual network from Azure Container Registry using its private endpoint and the app setting 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
+          <t>Enable Defender for App Service.  This (amongst other threats) detects communications to known malicious IP addresses.  Review the recommendations from Defender for App Service as part of your operations.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2787,7 +2827,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2795,7 +2835,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2811,17 +2851,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Penetration Testing</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Conduct a penetration test</t>
+          <t>Enable DDOS Protection Standard on the WAF VNet</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>Conduct a penetration test on the web application following the penetration testing rules of engagement.</t>
+          <t>Azure provides DDoS Basic protection on its network, which can be improved with intelligent DDoS Standard capabilities which learns about normal traffic patterns and can detect unusual behavior. DDoS Standard applies to a Virtual Network so it must be configured for the network resource in front of the app, such as Application Gateway or an NVA.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2837,7 +2877,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2845,7 +2885,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2861,17 +2901,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Vulnerability Management</t>
+          <t>Network Security</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Deploy validated code</t>
+          <t>Pull container images over a Virtual Network from Azure Container Registry.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Deploy trusted code that was validated and scanned for vulnerabilities according to DevSecOps practices.</t>
+          <t>When using images stored in Azure Container Registry, ensure they are pulled over a virtual network by using a private endpoint and configuring the app setting 'WEBSITE_PULL_IMAGE_OVER_VNET'. This ensures secure communication between App Service and the registry, preventing exposure to the public internet.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2887,14 +2927,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2910,22 +2950,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Vulnerability Management</t>
+          <t>Penetration Testing</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Use up-to-date platforms, languages, protocols and frameworks</t>
+          <t>Conduct a penetration test on the web application.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Use the latest versions of supported platforms, programming languages, protocols, and frameworks.</t>
+          <t>Perform a penetration test on the web application in accordance with Azure's penetration testing rules of engagement. This helps identify vulnerabilities and security weaknesses that can be addressed before they are exploited.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2936,7 +2976,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2944,7 +2984,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2953,83 +2993,248 @@
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Vulnerability Management</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Deploy validated and vulnerability-scanned code.</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>Ensure that only trusted code, which has been validated and scanned for vulnerabilities, is deployed to production following DevSecOps practices. This minimizes the risk of introducing security vulnerabilities into the application environment.</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Vulnerability Management</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Use up-to-date platforms, languages, protocols and frameworks</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="inlineStr">
+        <is>
+          <t>Ensure that the latest versions of supported platforms, programming languages, protocols, and frameworks are used. Regular updates mitigate the risk of security vulnerabilities and ensure compatibility with security patches.</t>
+        </is>
+      </c>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Cost Governance</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Cost Monitoring</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Monitor App Service costs using Azure Cost Management and create cost alerts.</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="inlineStr">
+        <is>
+          <t>Leverage Azure Cost Management to track and forecast App Service expenses. Set up alerts for budget thresholds to avoid overspending, and optimize costs based on resource utilization trends.</t>
+        </is>
+      </c>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>42eb48f0-28ff-497c-b2c0-a8fa1f989832</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Cost Governance</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Cost Optimization</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Purchase reserved instances for App Service plans to optimize long-term costs.</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>If you have predictable and steady usage of App Service, purchasing Reserved Instances can significantly reduce long-term costs. Commit to one or three years for lower pricing compared to pay-as-you-go.</t>
+        </is>
+      </c>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>e489221b-487e-48a3-aaab-48e3d205ca12</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Governance and Security</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Apply Azure Policy to enforce compliance across App Service configurations.</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to enforce security, compliance, and governance configurations for App Service. Policies can ensure that critical settings such as TLS versions, backup configurations, and network restrictions are enforced across all App Service instances.</t>
+        </is>
+      </c>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>361e886f-ca40-4ead-a8e9-1379c642ae9c</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -7046,7 +7251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
